--- a/public/files/exports/nilai-siswa.xlsx
+++ b/public/files/exports/nilai-siswa.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Nilai Siswa" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="ujian 1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="ujian 2" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>NIS</t>
   </si>
@@ -31,12 +32,6 @@
     <t>KKM</t>
   </si>
   <si>
-    <t>Nilai 1</t>
-  </si>
-  <si>
-    <t>Nilai 2</t>
-  </si>
-  <si>
     <t>0001010</t>
   </si>
   <si>
@@ -50,9 +45,6 @@
   </si>
   <si>
     <t>ujian 1</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -433,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,37 +447,76 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/exports/nilai-siswa.xlsx
+++ b/public/files/exports/nilai-siswa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>NIS</t>
   </si>
@@ -32,7 +32,13 @@
     <t>KKM</t>
   </si>
   <si>
-    <t>0001010</t>
+    <t>Nilai 1</t>
+  </si>
+  <si>
+    <t>Nilai 2</t>
+  </si>
+  <si>
+    <t>010</t>
   </si>
   <si>
     <t>BrodiBro</t>
@@ -45,6 +51,12 @@
   </si>
   <si>
     <t>ujian 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Belum mengambil ujian</t>
   </si>
 </sst>
 </file>
@@ -63,15 +75,20 @@
       <b/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ff8000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,13 +96,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,47 +459,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
         <v>70</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -476,47 +528,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>70</v>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
